--- a/biology/Biochimie/Guanosine_5'-(γ-thio)triphosphate/Guanosine_5'-(γ-thio)triphosphate.xlsx
+++ b/biology/Biochimie/Guanosine_5'-(γ-thio)triphosphate/Guanosine_5'-(γ-thio)triphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guanosine_5%27-(%CE%B3-thio)triphosphate</t>
+          <t>Guanosine_5'-(γ-thio)triphosphate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La guanosine 5'-[γ-thio]triphosphate (GTPγS) est un activateur de protéines G non hydrolysable, ou hydrolysable très lentement, analogue structurel de la guanosine triphosphate. De nombreuses protéines se liant au GTP sont actives tant qu'elles sont liées à cette molécule mais s'inactivent par hydrolyse de la liaison phosphodiester reliant le phosphate γ au reste du nucléotide, laissant un résidu de GDP lié et libérant un phosphate. Ceci survient généralement assez vite, et la protéine se liant au GTP ne peut demeurer active qu'en échangeant le GDP contre une nouvelle molécule de GTP.
